--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,17 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594ACBC5-436C-4D05-834F-A1F9735AFB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73F61C-C507-41BA-9894-84E762413B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21" hidden="1">Table2[]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table1" name="Table1" connection="WorksheetConnection_GameDesignData.xlsx!Table1"/>
+          <x15:modelTable id="Table2" name="Table2" connection="WorksheetConnection_GameDesignData.xlsx!Table2"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,8 +46,40 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{94AA3D3B-D01C-426C-AACA-89DD7F73375A}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{4BA72929-7195-4AD5-A85F-58EE29A42528}" name="WorksheetConnection_GameDesignData.xlsx!Table1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{72B55F2B-68AA-4E43-B261-0AF8230B0FF2}" name="WorksheetConnection_GameDesignData.xlsx!Table2" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table2">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -61,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Yari</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fists</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bind enemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Is Alliee</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,6 +178,131 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Katana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naginata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanbō</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bind enemy for 10 turns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50% stun for 1 turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weapons:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Esoterica "Nine Syllable Stabs"</t>
+  </si>
+  <si>
+    <t>Miracle "Miracle Fruit"</t>
+  </si>
+  <si>
+    <t>Att + Def boost 5 turns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snake Sign "Bind Snake Come On"</t>
+  </si>
+  <si>
+    <t>Summon green snake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Summon bind snake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snake Sign "Green Snake Come On"</t>
+  </si>
+  <si>
+    <t>Spells:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fortitude Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Health Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 turns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20 HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invulnerability Potion</t>
+  </si>
+  <si>
+    <t>No dmg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Strength Potion</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Potions:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Great Health Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10 HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9*2 dmg piercing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Youkai Extermination "Youkai Power Spoiler"</t>
+  </si>
+  <si>
+    <t>999 dmg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -217,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A96A8718-79FA-412B-A08C-811A5C9CD08F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{131D47C5-F3CB-4EBC-A994-D3B78C7908B5}" name="Damage"/>
@@ -231,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}" name="Table2" displayName="Table2" ref="H1:M7" totalsRowShown="0">
-  <autoFilter ref="H1:M7" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}" name="Table2" displayName="Table2" ref="Q1:V7" totalsRowShown="0">
+  <autoFilter ref="Q1:V7" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DCDA1FD1-7CED-48DE-9B23-49CCB6440831}" name="Name"/>
     <tableColumn id="2" xr3:uid="{2A78288D-DBE4-4FAD-AA93-7B40CB52CB15}" name="Health"/>
@@ -242,6 +403,29 @@
     <tableColumn id="5" xr3:uid="{919A0AA9-3615-47C4-B9C0-8350BD6E396E}" name="Time Bf Att"/>
     <tableColumn id="4" xr3:uid="{0B7046A7-EB49-40DC-B4C6-EC5589948313}" name="Is Alliee"/>
     <tableColumn id="6" xr3:uid="{BB563F66-56E4-4946-A931-2F10E37444EE}" name="Loot"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A13F1609-26CC-4458-BF96-9F75F8DEEC89}" name="Table4" displayName="Table4" ref="G1:H6" totalsRowShown="0">
+  <autoFilter ref="G1:H6" xr:uid="{A13F1609-26CC-4458-BF96-9F75F8DEEC89}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{444BD0AA-57ED-41BD-BF64-53720A87816B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{89045785-F365-449F-945F-63C75A7AA625}" name="Effect"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}" name="Table5" displayName="Table5" ref="J1:L6" totalsRowShown="0">
+  <autoFilter ref="J1:L6" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{634C0D45-E888-4E5E-8701-C3EDD305F9FD}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{654A17AB-DF84-43C2-BDF1-8469D8962D93}" name="Buff"/>
+    <tableColumn id="3" xr3:uid="{79B7D8B8-7D80-4F83-940F-D39C946ED4FB}" name="Add"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E6582-07AC-499E-9E79-114CCA904154}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -555,15 +739,24 @@
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,28 +770,43 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -611,29 +819,51 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(D:D, "Y")</f>
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2">
         <v>20</v>
       </c>
-      <c r="J2">
-        <f>B3</f>
-        <v>5</v>
-      </c>
-      <c r="K2">
+      <c r="S2">
+        <f t="shared" ref="S2:S7" si="0">B3</f>
+        <v>5</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -644,29 +874,51 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <f>ROWS(Table4[])</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <f>B4</f>
+      <c r="S3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -677,29 +929,51 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <f>B5</f>
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4">
+        <f>ROWS(Table5[])</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>-3</v>
@@ -708,31 +982,46 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <f>B6</f>
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -741,31 +1030,46 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <f>B7</f>
-        <v>5</v>
-      </c>
-      <c r="K6">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6">
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -774,31 +1078,31 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <f>B8</f>
-        <v>5</v>
-      </c>
-      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7">
+      <c r="U7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -807,18 +1111,51 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73F61C-C507-41BA-9894-84E762413B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F79A4-28C1-4373-A0EA-724D27412A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>999 dmg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unlockables</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -787,6 +791,9 @@
       <c r="L1" t="s">
         <v>45</v>
       </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
       <c r="Q1" t="s">
         <v>0</v>
       </c>
@@ -838,8 +845,8 @@
         <v>30</v>
       </c>
       <c r="O2">
-        <f>COUNTIF(D:D, "Y")</f>
-        <v>5</v>
+        <f>COUNTIF(D:D, "Y")-2</f>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
         <v>8</v>
@@ -948,8 +955,8 @@
         <v>52</v>
       </c>
       <c r="O4">
-        <f>ROWS(Table5[])</f>
-        <v>5</v>
+        <f>ROWS(Table5[])-1</f>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>

--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F79A4-28C1-4373-A0EA-724D27412A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FAAE65-2650-4083-9255-4061B12508CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11" hidden="1">Table1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2" hidden="1">Table2[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -307,6 +307,14 @@
   </si>
   <si>
     <t>Unlockables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ephemeral Boost Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack, Defense</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,8 +432,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}" name="Table5" displayName="Table5" ref="J1:L6" totalsRowShown="0">
-  <autoFilter ref="J1:L6" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}" name="Table5" displayName="Table5" ref="J1:L7" totalsRowShown="0">
+  <autoFilter ref="J1:L7" xr:uid="{9F624EF6-C734-449E-BD1C-C316866D7FD5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{634C0D45-E888-4E5E-8701-C3EDD305F9FD}" name="Name"/>
     <tableColumn id="2" xr3:uid="{654A17AB-DF84-43C2-BDF1-8469D8962D93}" name="Buff"/>
@@ -735,7 +743,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -956,7 +964,7 @@
       </c>
       <c r="O4">
         <f>ROWS(Table5[])-1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -1086,6 +1094,15 @@
       </c>
       <c r="D7" t="s">
         <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>

--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FAAE65-2650-4083-9255-4061B12508CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3E458-D3E2-43E5-A297-6C9C39DBCD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1" hidden="1">Table1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21" hidden="1">Table2[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +316,9 @@
   <si>
     <t>Attack, Defense</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Khakkhara</t>
   </si>
 </sst>
 </file>
@@ -390,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A96A8718-79FA-412B-A08C-811A5C9CD08F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{131D47C5-F3CB-4EBC-A994-D3B78C7908B5}" name="Damage"/>
@@ -740,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E6582-07AC-499E-9E79-114CCA904154}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -854,7 +857,7 @@
       </c>
       <c r="O2">
         <f>COUNTIF(D:D, "Y")-2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
         <v>8</v>
@@ -1170,6 +1173,20 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3E458-D3E2-43E5-A297-6C9C39DBCD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB81029-F514-4D9D-8010-3307D805883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -319,6 +319,13 @@
   </si>
   <si>
     <t>Khakkhara</t>
+  </si>
+  <si>
+    <t>Ōdzutsu</t>
+  </si>
+  <si>
+    <t>Single use</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -393,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A96A8718-79FA-412B-A08C-811A5C9CD08F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{131D47C5-F3CB-4EBC-A994-D3B78C7908B5}" name="Damage"/>
@@ -743,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E6582-07AC-499E-9E79-114CCA904154}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -857,7 +864,7 @@
       </c>
       <c r="O2">
         <f>COUNTIF(D:D, "Y")-2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
         <v>8</v>
@@ -1187,6 +1194,23 @@
       </c>
       <c r="D11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB81029-F514-4D9D-8010-3307D805883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9EA0C-418C-4A2F-B4EB-8155D4F3E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="24975" windowHeight="11295" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11" hidden="1">Table1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2" hidden="1">Table2[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>Single use</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fangs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Counter Attack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -400,8 +408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{6FC190E7-BCC1-47A3-9778-4D318B3159DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A96A8718-79FA-412B-A08C-811A5C9CD08F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{131D47C5-F3CB-4EBC-A994-D3B78C7908B5}" name="Damage"/>
@@ -750,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E6582-07AC-499E-9E79-114CCA904154}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1213,6 +1221,23 @@
         <v>63</v>
       </c>
     </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game Design/GameDesignData.xlsx
+++ b/Game Design/GameDesignData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwila\Documents\GitHub\TouhouPrideGameJam4\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9EA0C-418C-4A2F-B4EB-8155D4F3E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2126DBD-2844-4A26-9476-23E6A6980231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87B5070D-923F-48C1-B320-26591FEE16EF}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1" hidden="1">Table1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21" hidden="1">Table2[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +70,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_GameDesignData.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -333,6 +333,10 @@
   </si>
   <si>
     <t>Counter Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remilia</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -379,11 +383,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,13 +429,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}" name="Table2" displayName="Table2" ref="Q1:V7" totalsRowShown="0">
-  <autoFilter ref="Q1:V7" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}" name="Table2" displayName="Table2" ref="Q1:V8" totalsRowShown="0">
+  <autoFilter ref="Q1:V8" xr:uid="{593CD908-77E8-4F23-92F9-7E21D335B084}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DCDA1FD1-7CED-48DE-9B23-49CCB6440831}" name="Name"/>
     <tableColumn id="2" xr3:uid="{2A78288D-DBE4-4FAD-AA93-7B40CB52CB15}" name="Health"/>
     <tableColumn id="3" xr3:uid="{90942DC6-2161-45CE-B3B8-EFAF77DCDE87}" name="Damage" dataDxfId="0">
-      <calculatedColumnFormula>B3</calculatedColumnFormula>
+      <calculatedColumnFormula>B7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{919A0AA9-3615-47C4-B9C0-8350BD6E396E}" name="Time Bf Att"/>
     <tableColumn id="4" xr3:uid="{0B7046A7-EB49-40DC-B4C6-EC5589948313}" name="Is Alliee"/>
@@ -760,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E6582-07AC-499E-9E79-114CCA904154}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -881,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S7" si="0">B3</f>
+        <f t="shared" ref="S2:S8" si="0">B7</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -937,7 +944,7 @@
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -992,7 +999,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1040,7 +1047,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1088,7 +1095,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1130,7 +1137,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1157,6 +1164,25 @@
       </c>
       <c r="E8" t="s">
         <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
